--- a/output/1Y_P73_KFSDIV.xlsx
+++ b/output/1Y_P73_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.4613</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.6545</v>
       </c>
       <c r="C3" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="F3" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="H3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0155</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>12.2345</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E4" s="1">
-        <v>1592.7172</v>
+        <v>1589.5275</v>
       </c>
       <c r="F4" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="H4" s="1">
-        <v>19486.0988</v>
+        <v>19408.131</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19486.0988</v>
+        <v>19408.131</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5572</v>
+        <v>12.5824</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9783.3292</v>
+        <v>-9783.763000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0332</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.1636</v>
       </c>
       <c r="C5" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D5" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E5" s="1">
-        <v>2410.078</v>
+        <v>2405.2547</v>
       </c>
       <c r="F5" s="1">
-        <v>824.1043</v>
+        <v>822.4505</v>
       </c>
       <c r="H5" s="1">
-        <v>29315.2242</v>
+        <v>29198.1088</v>
       </c>
       <c r="I5" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="J5" s="1">
-        <v>29531.8951</v>
+        <v>29414.3458</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.4477</v>
+        <v>12.4727</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10024.0745</v>
+        <v>-10024.0263</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0016</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.8145</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E6" s="1">
-        <v>3234.1822</v>
+        <v>3227.7052</v>
       </c>
       <c r="F6" s="1">
-        <v>848.4552</v>
+        <v>846.7526</v>
       </c>
       <c r="H6" s="1">
-        <v>38210.2458</v>
+        <v>38057.5493</v>
       </c>
       <c r="I6" s="1">
-        <v>192.5963</v>
+        <v>192.2107</v>
       </c>
       <c r="J6" s="1">
-        <v>38402.842</v>
+        <v>38249.76</v>
       </c>
       <c r="K6" s="1">
-        <v>40024.0745</v>
+        <v>40024.0263</v>
       </c>
       <c r="L6" s="1">
-        <v>12.3753</v>
+        <v>12.4001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10024.0745</v>
+        <v>-10024.0263</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0286</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>11.2352</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E7" s="1">
-        <v>4082.6375</v>
+        <v>4074.4578</v>
       </c>
       <c r="F7" s="1">
-        <v>892.1946</v>
+        <v>890.4151000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>45869.2484</v>
+        <v>45685.6728</v>
       </c>
       <c r="I7" s="1">
-        <v>168.5217</v>
+        <v>168.1843</v>
       </c>
       <c r="J7" s="1">
-        <v>46037.7702</v>
+        <v>45853.8571</v>
       </c>
       <c r="K7" s="1">
-        <v>50048.1491</v>
+        <v>50048.0527</v>
       </c>
       <c r="L7" s="1">
-        <v>12.2588</v>
+        <v>12.2834</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>873.2292</v>
+        <v>871.4804</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9150.845300000001</v>
+        <v>-9152.545899999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0489</v>
+        <v>-0.0497</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.8241</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E8" s="1">
-        <v>4974.8321</v>
+        <v>4964.8729</v>
       </c>
       <c r="F8" s="1">
-        <v>939.5343</v>
+        <v>937.6231</v>
       </c>
       <c r="H8" s="1">
-        <v>53848.0803</v>
+        <v>53632.5431</v>
       </c>
       <c r="I8" s="1">
-        <v>1017.6764</v>
+        <v>1015.6384</v>
       </c>
       <c r="J8" s="1">
-        <v>54865.7567</v>
+        <v>54648.1815</v>
       </c>
       <c r="K8" s="1">
-        <v>60072.2236</v>
+        <v>60072.079</v>
       </c>
       <c r="L8" s="1">
-        <v>12.0752</v>
+        <v>12.0994</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10169.6127</v>
+        <v>-10169.2731</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0209</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.2543</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E9" s="1">
-        <v>5914.3664</v>
+        <v>5902.496</v>
       </c>
       <c r="F9" s="1">
-        <v>903.6202</v>
+        <v>901.7791</v>
       </c>
       <c r="H9" s="1">
-        <v>66562.0534</v>
+        <v>66295.6551</v>
       </c>
       <c r="I9" s="1">
-        <v>848.0637</v>
+        <v>846.3653</v>
       </c>
       <c r="J9" s="1">
-        <v>67410.1171</v>
+        <v>67142.02039999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70241.8363</v>
+        <v>70241.3521</v>
       </c>
       <c r="L9" s="1">
-        <v>11.8765</v>
+        <v>11.9003</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10169.6127</v>
+        <v>-10169.2731</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0392</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.5675</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E10" s="1">
-        <v>6817.9866</v>
+        <v>6804.2752</v>
       </c>
       <c r="F10" s="1">
-        <v>962.3389</v>
+        <v>960.3892</v>
       </c>
       <c r="H10" s="1">
-        <v>72049.073</v>
+        <v>71760.60769999999</v>
       </c>
       <c r="I10" s="1">
-        <v>678.4509</v>
+        <v>677.0923</v>
       </c>
       <c r="J10" s="1">
-        <v>72727.5239</v>
+        <v>72437.7</v>
       </c>
       <c r="K10" s="1">
-        <v>80411.4491</v>
+        <v>80410.6251</v>
       </c>
       <c r="L10" s="1">
-        <v>11.794</v>
+        <v>11.8177</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1596.8789</v>
+        <v>1593.6739</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8572.7338</v>
+        <v>-8575.599099999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0605</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E11" s="1">
-        <v>7780.3255</v>
+        <v>7764.6644</v>
       </c>
       <c r="F11" s="1">
-        <v>1073.7339</v>
+        <v>1071.4426</v>
       </c>
       <c r="H11" s="1">
-        <v>77546.504</v>
+        <v>77235.893</v>
       </c>
       <c r="I11" s="1">
-        <v>2105.7171</v>
+        <v>2101.4931</v>
       </c>
       <c r="J11" s="1">
-        <v>79652.2211</v>
+        <v>79337.3861</v>
       </c>
       <c r="K11" s="1">
-        <v>90581.0618</v>
+        <v>90579.8982</v>
       </c>
       <c r="L11" s="1">
-        <v>11.6423</v>
+        <v>11.6657</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10701.9057</v>
+        <v>-10700.4977</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0372</v>
+        <v>-0.0376</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.0064</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E12" s="1">
-        <v>8854.0594</v>
+        <v>8836.107</v>
       </c>
       <c r="F12" s="1">
-        <v>1069.5061</v>
+        <v>1067.2216</v>
       </c>
       <c r="H12" s="1">
-        <v>88597.2597</v>
+        <v>88240.8991</v>
       </c>
       <c r="I12" s="1">
-        <v>1403.8114</v>
+        <v>1400.9954</v>
       </c>
       <c r="J12" s="1">
-        <v>90001.0711</v>
+        <v>89641.89449999999</v>
       </c>
       <c r="K12" s="1">
-        <v>101282.9675</v>
+        <v>101280.3959</v>
       </c>
       <c r="L12" s="1">
-        <v>11.4392</v>
+        <v>11.4621</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10701.9057</v>
+        <v>-10700.4977</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0039</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.0129</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E13" s="1">
-        <v>9923.565500000001</v>
+        <v>9903.3287</v>
       </c>
       <c r="F13" s="1">
-        <v>1068.8118</v>
+        <v>1066.5302</v>
       </c>
       <c r="H13" s="1">
-        <v>99363.6685</v>
+        <v>98962.97289999999</v>
       </c>
       <c r="I13" s="1">
-        <v>701.9057</v>
+        <v>700.4977</v>
       </c>
       <c r="J13" s="1">
-        <v>100065.5743</v>
+        <v>99663.4706</v>
       </c>
       <c r="K13" s="1">
-        <v>111984.8732</v>
+        <v>111980.8936</v>
       </c>
       <c r="L13" s="1">
-        <v>11.2847</v>
+        <v>11.3074</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2390.596</v>
+        <v>2385.7489</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8311.3097</v>
+        <v>-8314.748799999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.4583</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E14" s="1">
-        <v>10992.3773</v>
+        <v>10969.8589</v>
       </c>
       <c r="F14" s="1">
-        <v>-10992.3773</v>
+        <v>-10969.8589</v>
       </c>
       <c r="H14" s="1">
-        <v>114961.5791</v>
+        <v>114496.805</v>
       </c>
       <c r="I14" s="1">
-        <v>2390.596</v>
+        <v>2385.7489</v>
       </c>
       <c r="J14" s="1">
-        <v>117352.1751</v>
+        <v>116882.5539</v>
       </c>
       <c r="K14" s="1">
-        <v>122686.7789</v>
+        <v>122681.3913</v>
       </c>
       <c r="L14" s="1">
-        <v>11.1611</v>
+        <v>11.1835</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114961.5791</v>
+        <v>114496.805</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.06619999999999999</v>
+        <v>0.0658</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.4613</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.6545</v>
       </c>
       <c r="C3" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="F3" s="1">
-        <v>777.981</v>
+        <v>782.7538</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9844.959999999999</v>
+        <v>-9925.2402</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0155</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>12.2345</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E4" s="1">
-        <v>1580.4654</v>
+        <v>1583.6316</v>
       </c>
       <c r="F4" s="1">
-        <v>830.0331</v>
+        <v>821.8256</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19336.2045</v>
+        <v>19336.1416</v>
       </c>
       <c r="I4" s="1">
-        <v>155.04</v>
+        <v>74.7598</v>
       </c>
       <c r="J4" s="1">
-        <v>19491.2445</v>
+        <v>19410.9015</v>
       </c>
       <c r="K4" s="1">
-        <v>19844.96</v>
+        <v>19925.2402</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5564</v>
+        <v>12.582</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9938.369199999999</v>
+        <v>-9858.522800000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0329</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.1636</v>
       </c>
       <c r="C5" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D5" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E5" s="1">
-        <v>2410.4986</v>
+        <v>2405.4572</v>
       </c>
       <c r="F5" s="1">
-        <v>839.9381</v>
+        <v>838.221</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29320.3402</v>
+        <v>29200.5662</v>
       </c>
       <c r="I5" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="J5" s="1">
-        <v>29537.011</v>
+        <v>29416.8032</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.4456</v>
+        <v>12.4716</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10216.6708</v>
+        <v>-10216.237</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0016</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.8145</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E6" s="1">
-        <v>3250.4366</v>
+        <v>3243.6781</v>
       </c>
       <c r="F6" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38402.2836</v>
+        <v>38245.8844</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38402.2836</v>
+        <v>38245.8844</v>
       </c>
       <c r="K6" s="1">
-        <v>40216.6708</v>
+        <v>40216.237</v>
       </c>
       <c r="L6" s="1">
-        <v>12.3727</v>
+        <v>12.3983</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0287</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>11.2352</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E7" s="1">
-        <v>4096.8542</v>
+        <v>4088.4011</v>
       </c>
       <c r="F7" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>46028.9759</v>
+        <v>45842.0154</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46028.9759</v>
+        <v>45842.0154</v>
       </c>
       <c r="K7" s="1">
-        <v>50216.6708</v>
+        <v>50216.237</v>
       </c>
       <c r="L7" s="1">
-        <v>12.2574</v>
+        <v>12.2826</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>877.6179</v>
+        <v>875.7931</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9122.382100000001</v>
+        <v>-9124.206899999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.049</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.8241</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E8" s="1">
-        <v>4986.9061</v>
+        <v>4976.682</v>
       </c>
       <c r="F8" s="1">
-        <v>1004.9443</v>
+        <v>1002.7654</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>53978.7699</v>
+        <v>53760.1101</v>
       </c>
       <c r="I8" s="1">
-        <v>877.6179</v>
+        <v>875.7931</v>
       </c>
       <c r="J8" s="1">
-        <v>54856.3877</v>
+        <v>54635.9032</v>
       </c>
       <c r="K8" s="1">
-        <v>60216.6708</v>
+        <v>60216.237</v>
       </c>
       <c r="L8" s="1">
-        <v>12.075</v>
+        <v>12.0997</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10877.6179</v>
+        <v>-10875.7931</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0209</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.2543</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E9" s="1">
-        <v>5991.8504</v>
+        <v>5979.4475</v>
       </c>
       <c r="F9" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67434.0818</v>
+        <v>67159.95789999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67434.0818</v>
+        <v>67159.95789999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71094.2887</v>
+        <v>71092.0301</v>
       </c>
       <c r="L9" s="1">
-        <v>11.8652</v>
+        <v>11.8894</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.5675</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E10" s="1">
-        <v>6880.3996</v>
+        <v>6866.216</v>
       </c>
       <c r="F10" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>72708.62330000001</v>
+        <v>72413.8603</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>72708.62330000001</v>
+        <v>72413.8603</v>
       </c>
       <c r="K10" s="1">
-        <v>81094.2887</v>
+        <v>81092.0301</v>
       </c>
       <c r="L10" s="1">
-        <v>11.7863</v>
+        <v>11.8103</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1617.7996</v>
+        <v>1614.4508</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8382.2004</v>
+        <v>-8385.549199999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.061</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E11" s="1">
-        <v>7826.6883</v>
+        <v>7810.619</v>
       </c>
       <c r="F11" s="1">
-        <v>1165.6265</v>
+        <v>1162.9569</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>78008.6023</v>
+        <v>77693.00810000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1617.7996</v>
+        <v>1614.4508</v>
       </c>
       <c r="J11" s="1">
-        <v>79626.4019</v>
+        <v>79307.4589</v>
       </c>
       <c r="K11" s="1">
-        <v>91094.2887</v>
+        <v>91092.0301</v>
       </c>
       <c r="L11" s="1">
-        <v>11.6389</v>
+        <v>11.6626</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11617.7996</v>
+        <v>-11614.4508</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0373</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.0064</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E12" s="1">
-        <v>8992.3148</v>
+        <v>8973.5759</v>
       </c>
       <c r="F12" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>89980.6991</v>
+        <v>89613.7184</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89980.6991</v>
+        <v>89613.7184</v>
       </c>
       <c r="K12" s="1">
-        <v>102712.0883</v>
+        <v>102706.4809</v>
       </c>
       <c r="L12" s="1">
-        <v>11.4222</v>
+        <v>11.4454</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.0129</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E13" s="1">
-        <v>9991.6752</v>
+        <v>9970.9329</v>
       </c>
       <c r="F13" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>100045.645</v>
+        <v>99638.5355</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>100045.645</v>
+        <v>99638.5355</v>
       </c>
       <c r="K13" s="1">
-        <v>112712.0883</v>
+        <v>112706.4809</v>
       </c>
       <c r="L13" s="1">
-        <v>11.2806</v>
+        <v>11.3035</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2427.925</v>
+        <v>2422.8655</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7572.075</v>
+        <v>-7577.1345</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.4583</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E14" s="1">
-        <v>10990.3869</v>
+        <v>10967.6438</v>
       </c>
       <c r="F14" s="1">
-        <v>-10990.3869</v>
+        <v>-10967.6438</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114940.7634</v>
+        <v>114473.685</v>
       </c>
       <c r="I14" s="1">
-        <v>2427.925</v>
+        <v>2422.8655</v>
       </c>
       <c r="J14" s="1">
-        <v>117368.6884</v>
+        <v>116896.5505</v>
       </c>
       <c r="K14" s="1">
-        <v>122712.0883</v>
+        <v>122706.4809</v>
       </c>
       <c r="L14" s="1">
-        <v>11.1654</v>
+        <v>11.188</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114940.7634</v>
+        <v>114473.685</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0665</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.4613</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.6545</v>
       </c>
       <c r="C3" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="F3" s="1">
-        <v>781.9321</v>
+        <v>786.7129</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9894.959999999999</v>
+        <v>-9975.4409</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0155</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>12.2345</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E4" s="1">
-        <v>1584.4166</v>
+        <v>1587.5907</v>
       </c>
       <c r="F4" s="1">
-        <v>825.9463</v>
+        <v>817.7306</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19384.545</v>
+        <v>19384.482</v>
       </c>
       <c r="I4" s="1">
-        <v>105.04</v>
+        <v>24.5591</v>
       </c>
       <c r="J4" s="1">
-        <v>19489.585</v>
+        <v>19409.0411</v>
       </c>
       <c r="K4" s="1">
-        <v>19894.96</v>
+        <v>19975.4409</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5566</v>
+        <v>12.5822</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9888.369199999999</v>
+        <v>-9808.322099999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.033</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.1636</v>
       </c>
       <c r="C5" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D5" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E5" s="1">
-        <v>2410.3629</v>
+        <v>2405.3212</v>
       </c>
       <c r="F5" s="1">
-        <v>839.9381</v>
+        <v>838.221</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29318.6903</v>
+        <v>29198.9161</v>
       </c>
       <c r="I5" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="J5" s="1">
-        <v>29535.3611</v>
+        <v>29415.1531</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.4463</v>
+        <v>12.4723</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10216.6708</v>
+        <v>-10216.237</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0016</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.8145</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E6" s="1">
-        <v>3250.301</v>
+        <v>3243.5422</v>
       </c>
       <c r="F6" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38400.681</v>
+        <v>38244.2816</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38400.681</v>
+        <v>38244.2816</v>
       </c>
       <c r="K6" s="1">
-        <v>40216.6708</v>
+        <v>40216.237</v>
       </c>
       <c r="L6" s="1">
-        <v>12.3732</v>
+        <v>12.3989</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0287</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>11.2352</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E7" s="1">
-        <v>4096.7185</v>
+        <v>4088.2652</v>
       </c>
       <c r="F7" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>46027.452</v>
+        <v>45840.4913</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46027.452</v>
+        <v>45840.4913</v>
       </c>
       <c r="K7" s="1">
-        <v>50216.6708</v>
+        <v>50216.237</v>
       </c>
       <c r="L7" s="1">
-        <v>12.2578</v>
+        <v>12.283</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>877.5813000000001</v>
+        <v>875.7564</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9122.4187</v>
+        <v>-9124.2436</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.049</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.8241</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E8" s="1">
-        <v>4986.7704</v>
+        <v>4976.5461</v>
       </c>
       <c r="F8" s="1">
-        <v>1004.9409</v>
+        <v>1002.762</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>53977.3017</v>
+        <v>53758.6418</v>
       </c>
       <c r="I8" s="1">
-        <v>877.5813000000001</v>
+        <v>875.7564</v>
       </c>
       <c r="J8" s="1">
-        <v>54854.8829</v>
+        <v>54634.3981</v>
       </c>
       <c r="K8" s="1">
-        <v>60216.6708</v>
+        <v>60216.237</v>
       </c>
       <c r="L8" s="1">
-        <v>12.0753</v>
+        <v>12.1</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10877.5813</v>
+        <v>-10875.7564</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0209</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.2543</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E9" s="1">
-        <v>5991.7114</v>
+        <v>5979.3081</v>
       </c>
       <c r="F9" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67432.5172</v>
+        <v>67158.39320000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67432.5172</v>
+        <v>67158.39320000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71094.2521</v>
+        <v>71091.99340000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.8654</v>
+        <v>11.8897</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.5675</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E10" s="1">
-        <v>6880.2606</v>
+        <v>6866.0767</v>
       </c>
       <c r="F10" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>72707.1542</v>
+        <v>72412.391</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>72707.1542</v>
+        <v>72412.391</v>
       </c>
       <c r="K10" s="1">
-        <v>81094.2521</v>
+        <v>81091.99340000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.7865</v>
+        <v>11.8105</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1617.7621</v>
+        <v>1614.4132</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8382.2379</v>
+        <v>-8385.586799999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.061</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E11" s="1">
-        <v>7826.5493</v>
+        <v>7810.4797</v>
       </c>
       <c r="F11" s="1">
-        <v>1165.6228</v>
+        <v>1162.9532</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>78007.2167</v>
+        <v>77691.6223</v>
       </c>
       <c r="I11" s="1">
-        <v>1617.7621</v>
+        <v>1614.4132</v>
       </c>
       <c r="J11" s="1">
-        <v>79624.9788</v>
+        <v>79306.0355</v>
       </c>
       <c r="K11" s="1">
-        <v>91094.2521</v>
+        <v>91091.99340000001</v>
       </c>
       <c r="L11" s="1">
-        <v>11.6391</v>
+        <v>11.6628</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11617.7621</v>
+        <v>-11614.4132</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0373</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.0064</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E12" s="1">
-        <v>8992.172</v>
+        <v>8973.4328</v>
       </c>
       <c r="F12" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>89979.2703</v>
+        <v>89612.2896</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89979.2703</v>
+        <v>89612.2896</v>
       </c>
       <c r="K12" s="1">
-        <v>102712.0141</v>
+        <v>102706.4066</v>
       </c>
       <c r="L12" s="1">
-        <v>11.4224</v>
+        <v>11.4456</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.0129</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E13" s="1">
-        <v>9991.532499999999</v>
+        <v>9970.7898</v>
       </c>
       <c r="F13" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>100044.2153</v>
+        <v>99637.1057</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>100044.2153</v>
+        <v>99637.1057</v>
       </c>
       <c r="K13" s="1">
-        <v>112712.0141</v>
+        <v>112706.4066</v>
       </c>
       <c r="L13" s="1">
-        <v>11.2808</v>
+        <v>11.3037</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2427.8865</v>
+        <v>2422.8269</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7572.1135</v>
+        <v>-7577.1731</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.4583</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E14" s="1">
-        <v>10990.2441</v>
+        <v>10967.5007</v>
       </c>
       <c r="F14" s="1">
-        <v>-10990.2441</v>
+        <v>-10967.5007</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114939.27</v>
+        <v>114472.1916</v>
       </c>
       <c r="I14" s="1">
-        <v>2427.8865</v>
+        <v>2422.8269</v>
       </c>
       <c r="J14" s="1">
-        <v>117367.1565</v>
+        <v>116895.0185</v>
       </c>
       <c r="K14" s="1">
-        <v>122712.0141</v>
+        <v>122706.4066</v>
       </c>
       <c r="L14" s="1">
-        <v>11.1655</v>
+        <v>11.1882</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114939.27</v>
+        <v>114472.1916</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0665</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2905,774 +2905,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12.4613</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12.4613</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12.4613</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>802.4845</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12.6545</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12.6545</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12.6545</v>
-      </c>
-      <c r="E3" s="1">
-        <v>802.4845</v>
-      </c>
-      <c r="F3" s="1">
-        <v>785.8833</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10155.04</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10155.04</v>
-      </c>
-      <c r="K3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>12.4613</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-9944.959999999999</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.0155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12.2345</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12.2345</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12.2345</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1588.3678</v>
-      </c>
-      <c r="F4" s="1">
-        <v>821.8595</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30301</v>
-      </c>
-      <c r="H4" s="1">
-        <v>19432.8855</v>
-      </c>
-      <c r="I4" s="1">
-        <v>55.04</v>
-      </c>
-      <c r="J4" s="1">
-        <v>19487.9255</v>
-      </c>
-      <c r="K4" s="1">
-        <v>19944.96</v>
-      </c>
-      <c r="L4" s="1">
-        <v>12.5569</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>216.6708</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-9838.369199999999</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>-0.0331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>12.1636</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12.1636</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12.1636</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2410.2273</v>
-      </c>
-      <c r="F5" s="1">
-        <v>839.9381</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40604.01</v>
-      </c>
-      <c r="H5" s="1">
-        <v>29317.0404</v>
-      </c>
-      <c r="I5" s="1">
-        <v>216.6708</v>
-      </c>
-      <c r="J5" s="1">
-        <v>29533.7112</v>
-      </c>
-      <c r="K5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>12.447</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-10216.6708</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.0016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11.8145</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11.8145</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11.8145</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3250.1653</v>
-      </c>
-      <c r="F6" s="1">
-        <v>846.4175</v>
-      </c>
-      <c r="G6" s="1">
-        <v>51010.0501</v>
-      </c>
-      <c r="H6" s="1">
-        <v>38399.0785</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>38399.0785</v>
-      </c>
-      <c r="K6" s="1">
-        <v>40216.6708</v>
-      </c>
-      <c r="L6" s="1">
-        <v>12.3737</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>-0.0287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11.2352</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11.2352</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11.2353</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4096.5829</v>
-      </c>
-      <c r="F7" s="1">
-        <v>890.0519</v>
-      </c>
-      <c r="G7" s="1">
-        <v>61520.1506</v>
-      </c>
-      <c r="H7" s="1">
-        <v>46025.928</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>46025.928</v>
-      </c>
-      <c r="K7" s="1">
-        <v>50216.6708</v>
-      </c>
-      <c r="L7" s="1">
-        <v>12.2582</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>877.5445999999999</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-9122.455400000001</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-0.049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10.8241</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10.8241</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10.8241</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4986.6348</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1004.9376</v>
-      </c>
-      <c r="G8" s="1">
-        <v>72135.3521</v>
-      </c>
-      <c r="H8" s="1">
-        <v>53975.8335</v>
-      </c>
-      <c r="I8" s="1">
-        <v>877.5445999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>54853.3781</v>
-      </c>
-      <c r="K8" s="1">
-        <v>60216.6708</v>
-      </c>
-      <c r="L8" s="1">
-        <v>12.0756</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-10877.5446</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>-0.0209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>11.2543</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11.2543</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11.2543</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5991.5723</v>
-      </c>
-      <c r="F9" s="1">
-        <v>888.5493</v>
-      </c>
-      <c r="G9" s="1">
-        <v>82856.7056</v>
-      </c>
-      <c r="H9" s="1">
-        <v>67430.9526</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>67430.9526</v>
-      </c>
-      <c r="K9" s="1">
-        <v>71094.21550000001</v>
-      </c>
-      <c r="L9" s="1">
-        <v>11.8657</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.0397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.5675</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10.5675</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10.5676</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6880.1216</v>
-      </c>
-      <c r="F10" s="1">
-        <v>946.2886999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>93685.2727</v>
-      </c>
-      <c r="H10" s="1">
-        <v>72705.685</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>72705.685</v>
-      </c>
-      <c r="K10" s="1">
-        <v>81094.21550000001</v>
-      </c>
-      <c r="L10" s="1">
-        <v>11.7867</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1617.7245</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-8382.2755</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>-0.061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9.967000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9.967000000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9.967000000000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7826.4103</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1165.619</v>
-      </c>
-      <c r="G11" s="1">
-        <v>104622.1254</v>
-      </c>
-      <c r="H11" s="1">
-        <v>78005.83100000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1617.7245</v>
-      </c>
-      <c r="J11" s="1">
-        <v>79623.55560000001</v>
-      </c>
-      <c r="K11" s="1">
-        <v>91094.21550000001</v>
-      </c>
-      <c r="L11" s="1">
-        <v>11.6393</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-11617.7245</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>-0.0373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10.0064</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10.0064</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.0064</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8992.0293</v>
-      </c>
-      <c r="F12" s="1">
-        <v>999.3604</v>
-      </c>
-      <c r="G12" s="1">
-        <v>115668.3467</v>
-      </c>
-      <c r="H12" s="1">
-        <v>89977.84149999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>89977.84149999999</v>
-      </c>
-      <c r="K12" s="1">
-        <v>102711.94</v>
-      </c>
-      <c r="L12" s="1">
-        <v>11.4226</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10.0129</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10.0129</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10.0129</v>
-      </c>
-      <c r="E13" s="1">
-        <v>9991.3897</v>
-      </c>
-      <c r="F13" s="1">
-        <v>998.7117</v>
-      </c>
-      <c r="G13" s="1">
-        <v>126825.0301</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100042.7856</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>100042.7856</v>
-      </c>
-      <c r="K13" s="1">
-        <v>112711.94</v>
-      </c>
-      <c r="L13" s="1">
-        <v>11.2809</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2427.8479</v>
-      </c>
-      <c r="O13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-7572.1521</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.0005999999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10.4583</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10.4583</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10.4583</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10990.1013</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-10990.1013</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>114937.7767</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2427.8479</v>
-      </c>
-      <c r="J14" s="1">
-        <v>117365.6246</v>
-      </c>
-      <c r="K14" s="1">
-        <v>122711.94</v>
-      </c>
-      <c r="L14" s="1">
-        <v>11.1657</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>114937.7767</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0.0665</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -3760,16 +2992,16 @@
         <v>12.4613</v>
       </c>
       <c r="C2" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D2" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3039,34 @@
         <v>12.6545</v>
       </c>
       <c r="C3" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E3" s="1">
-        <v>802.4845</v>
+        <v>800.8778</v>
       </c>
       <c r="F3" s="1">
-        <v>789.8344</v>
+        <v>790.672</v>
       </c>
       <c r="G3" s="1">
-        <v>20150</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10155.04</v>
+        <v>10114.4454</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9994.959999999999</v>
+        <v>-10025.6416</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0155</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3092,49 @@
         <v>12.2345</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E4" s="1">
-        <v>1592.3189</v>
+        <v>1591.5497</v>
       </c>
       <c r="F4" s="1">
-        <v>817.7727</v>
+        <v>813.6356</v>
       </c>
       <c r="G4" s="1">
-        <v>30452.25</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19481.226</v>
+        <v>19432.8223</v>
       </c>
       <c r="I4" s="1">
-        <v>5.04</v>
+        <v>-25.6416</v>
       </c>
       <c r="J4" s="1">
-        <v>19486.266</v>
+        <v>19407.1807</v>
       </c>
       <c r="K4" s="1">
-        <v>19994.96</v>
+        <v>20025.6416</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5571</v>
+        <v>12.5825</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9788.369199999999</v>
+        <v>-9758.1214</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0332</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3145,34 @@
         <v>12.1636</v>
       </c>
       <c r="C5" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D5" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E5" s="1">
-        <v>2410.0916</v>
+        <v>2405.1853</v>
       </c>
       <c r="F5" s="1">
-        <v>839.9381</v>
+        <v>838.221</v>
       </c>
       <c r="G5" s="1">
-        <v>40909.0337</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29315.3906</v>
+        <v>29197.266</v>
       </c>
       <c r="I5" s="1">
-        <v>216.6708</v>
+        <v>216.237</v>
       </c>
       <c r="J5" s="1">
-        <v>29532.0614</v>
+        <v>29413.503</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.4477</v>
+        <v>12.4731</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10216.6708</v>
+        <v>-10216.237</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0016</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3198,34 @@
         <v>11.8145</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E6" s="1">
-        <v>3250.0297</v>
+        <v>3243.4063</v>
       </c>
       <c r="F6" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G6" s="1">
-        <v>51522.6693</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38397.476</v>
+        <v>38242.6789</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38397.476</v>
+        <v>38242.6789</v>
       </c>
       <c r="K6" s="1">
-        <v>40216.6708</v>
+        <v>40216.237</v>
       </c>
       <c r="L6" s="1">
-        <v>12.3742</v>
+        <v>12.3994</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0287</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +3251,49 @@
         <v>11.2352</v>
       </c>
       <c r="C7" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D7" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E7" s="1">
-        <v>4096.4472</v>
+        <v>4088.1293</v>
       </c>
       <c r="F7" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G7" s="1">
-        <v>62295.5093</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>46024.4041</v>
+        <v>45838.9671</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46024.4041</v>
+        <v>45838.9671</v>
       </c>
       <c r="K7" s="1">
-        <v>50216.6708</v>
+        <v>50216.237</v>
       </c>
       <c r="L7" s="1">
-        <v>12.2586</v>
+        <v>12.2834</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>877.508</v>
+        <v>875.7197</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9122.492</v>
+        <v>-9124.2803</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.049</v>
+        <v>-0.0498</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +3304,34 @@
         <v>10.8241</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E8" s="1">
-        <v>4986.4991</v>
+        <v>4976.4102</v>
       </c>
       <c r="F8" s="1">
-        <v>1004.9342</v>
+        <v>1002.7586</v>
       </c>
       <c r="G8" s="1">
-        <v>73229.94190000001</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>53974.3653</v>
+        <v>53757.1734</v>
       </c>
       <c r="I8" s="1">
-        <v>877.508</v>
+        <v>875.7197</v>
       </c>
       <c r="J8" s="1">
-        <v>54851.8733</v>
+        <v>54632.8931</v>
       </c>
       <c r="K8" s="1">
-        <v>60216.6708</v>
+        <v>60216.237</v>
       </c>
       <c r="L8" s="1">
-        <v>12.0759</v>
+        <v>12.1003</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10877.508</v>
+        <v>-10875.7197</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0209</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +3357,34 @@
         <v>11.2543</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D9" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E9" s="1">
-        <v>5991.4333</v>
+        <v>5979.1688</v>
       </c>
       <c r="F9" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G9" s="1">
-        <v>84328.39109999999</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67429.3879</v>
+        <v>67156.8284</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67429.3879</v>
+        <v>67156.8284</v>
       </c>
       <c r="K9" s="1">
-        <v>71094.17879999999</v>
+        <v>71091.9567</v>
       </c>
       <c r="L9" s="1">
-        <v>11.866</v>
+        <v>11.8899</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +3410,49 @@
         <v>10.5675</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E10" s="1">
-        <v>6879.9826</v>
+        <v>6865.9374</v>
       </c>
       <c r="F10" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G10" s="1">
-        <v>95593.31690000001</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>72704.2159</v>
+        <v>72410.92170000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>72704.2159</v>
+        <v>72410.92170000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81094.17879999999</v>
+        <v>81091.9567</v>
       </c>
       <c r="L10" s="1">
-        <v>11.787</v>
+        <v>11.8108</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1617.687</v>
+        <v>1614.3756</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8382.313</v>
+        <v>-8385.624400000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.061</v>
+        <v>-0.0615</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +3463,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E11" s="1">
-        <v>7826.2712</v>
+        <v>7810.3403</v>
       </c>
       <c r="F11" s="1">
-        <v>1165.6152</v>
+        <v>1162.9494</v>
       </c>
       <c r="G11" s="1">
-        <v>107027.2167</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>78004.4454</v>
+        <v>77690.2365</v>
       </c>
       <c r="I11" s="1">
-        <v>1617.687</v>
+        <v>1614.3756</v>
       </c>
       <c r="J11" s="1">
-        <v>79622.1324</v>
+        <v>79304.6121</v>
       </c>
       <c r="K11" s="1">
-        <v>91094.17879999999</v>
+        <v>91091.9567</v>
       </c>
       <c r="L11" s="1">
-        <v>11.6395</v>
+        <v>11.663</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11617.687</v>
+        <v>-11614.3756</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0373</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +3516,34 @@
         <v>10.0064</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E12" s="1">
-        <v>8991.886500000001</v>
+        <v>8973.289699999999</v>
       </c>
       <c r="F12" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G12" s="1">
-        <v>118632.6249</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>89976.4127</v>
+        <v>89610.8607</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89976.4127</v>
+        <v>89610.8607</v>
       </c>
       <c r="K12" s="1">
-        <v>102711.8658</v>
+        <v>102706.3323</v>
       </c>
       <c r="L12" s="1">
-        <v>11.4227</v>
+        <v>11.4458</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +3569,49 @@
         <v>10.0129</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E13" s="1">
-        <v>9991.2469</v>
+        <v>9970.646699999999</v>
       </c>
       <c r="F13" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G13" s="1">
-        <v>130412.1143</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>100041.3558</v>
+        <v>99635.6759</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>100041.3558</v>
+        <v>99635.6759</v>
       </c>
       <c r="K13" s="1">
-        <v>112711.8658</v>
+        <v>112706.3323</v>
       </c>
       <c r="L13" s="1">
-        <v>11.2811</v>
+        <v>11.3038</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2427.8093</v>
+        <v>2422.7882</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7572.1907</v>
+        <v>-7577.2118</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +3622,802 @@
         <v>10.4583</v>
       </c>
       <c r="C14" s="1">
+        <v>10.4374</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10.4793</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10967.3576</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-10967.3576</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>114470.6982</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2422.7882</v>
+      </c>
+      <c r="J14" s="1">
+        <v>116893.4865</v>
+      </c>
+      <c r="K14" s="1">
+        <v>122706.3323</v>
+      </c>
+      <c r="L14" s="1">
+        <v>11.1883</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>114470.6982</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.06619999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12.4613</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12.4364</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12.4863</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>800.8778</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12.6545</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.6292</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12.6799</v>
+      </c>
+      <c r="E3" s="1">
+        <v>800.8778</v>
+      </c>
+      <c r="F3" s="1">
+        <v>788.6498</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20150</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10114.4454</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10114.4454</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12.4863</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.0114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12.2345</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12.21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12.259</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1589.5275</v>
+      </c>
+      <c r="F4" s="1">
+        <v>815.7272</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30452.25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>19408.131</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19408.131</v>
+      </c>
+      <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12.5824</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>216.237</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-9783.763000000001</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-0.0351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12.1636</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.1393</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12.188</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2405.2547</v>
+      </c>
+      <c r="F5" s="1">
+        <v>838.221</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40909.0337</v>
+      </c>
+      <c r="H5" s="1">
+        <v>29198.1088</v>
+      </c>
+      <c r="I5" s="1">
+        <v>216.237</v>
+      </c>
+      <c r="J5" s="1">
+        <v>29414.3458</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.4727</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-10216.237</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11.8145</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11.7909</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11.8382</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3243.4757</v>
+      </c>
+      <c r="F6" s="1">
+        <v>844.723</v>
+      </c>
+      <c r="G6" s="1">
+        <v>51522.6693</v>
+      </c>
+      <c r="H6" s="1">
+        <v>38243.4975</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>38243.4975</v>
+      </c>
+      <c r="K6" s="1">
+        <v>40216.237</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12.3991</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-0.0297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.2352</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11.2127</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11.2577</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4088.1987</v>
+      </c>
+      <c r="F7" s="1">
+        <v>888.2809</v>
+      </c>
+      <c r="G7" s="1">
+        <v>62295.5093</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45839.7456</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45839.7456</v>
+      </c>
+      <c r="K7" s="1">
+        <v>50216.237</v>
+      </c>
+      <c r="L7" s="1">
+        <v>12.2832</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>875.7384</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-9124.2616</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-0.0498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10.8241</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10.8024</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10.8458</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4976.4796</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1002.7604</v>
+      </c>
+      <c r="G8" s="1">
+        <v>73229.94190000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>53757.9234</v>
+      </c>
+      <c r="I8" s="1">
+        <v>875.7384</v>
+      </c>
+      <c r="J8" s="1">
+        <v>54633.6618</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60216.237</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12.1002</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-10875.7384</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-0.0216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11.2543</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11.2318</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11.2769</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5979.24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>886.7685</v>
+      </c>
+      <c r="G9" s="1">
+        <v>84328.39109999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>67157.6277</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>67157.6277</v>
+      </c>
+      <c r="K9" s="1">
+        <v>71091.9754</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11.8898</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.0391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.5675</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.5464</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.5887</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6866.0085</v>
+      </c>
+      <c r="F10" s="1">
+        <v>944.403</v>
+      </c>
+      <c r="G10" s="1">
+        <v>95593.31690000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>72411.6722</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>72411.6722</v>
+      </c>
+      <c r="K10" s="1">
+        <v>81091.9754</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.8106</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1614.3948</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-8385.6052</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-0.0615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.967000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.947100000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.987</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7810.4115</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1162.9513</v>
+      </c>
+      <c r="G11" s="1">
+        <v>107027.2167</v>
+      </c>
+      <c r="H11" s="1">
+        <v>77690.9443</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1614.3948</v>
+      </c>
+      <c r="J11" s="1">
+        <v>79305.3391</v>
+      </c>
+      <c r="K11" s="1">
+        <v>91091.9754</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11.6629</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-11614.3948</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-0.0377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.0064</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.9864</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.0265</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8973.362800000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>997.357</v>
+      </c>
+      <c r="G12" s="1">
+        <v>118632.6249</v>
+      </c>
+      <c r="H12" s="1">
+        <v>89611.59050000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>89611.59050000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>102706.3702</v>
+      </c>
+      <c r="L12" s="1">
+        <v>11.4457</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-10000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.0129</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.992900000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10.033</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9970.719800000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>996.7109</v>
+      </c>
+      <c r="G13" s="1">
+        <v>130412.1143</v>
+      </c>
+      <c r="H13" s="1">
+        <v>99636.4062</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>99636.4062</v>
+      </c>
+      <c r="K13" s="1">
+        <v>112706.3702</v>
+      </c>
+      <c r="L13" s="1">
+        <v>11.3037</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2422.808</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-7577.192</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>10.4583</v>
       </c>
+      <c r="C14" s="1">
+        <v>10.4374</v>
+      </c>
       <c r="D14" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E14" s="1">
-        <v>10989.9585</v>
+        <v>10967.4307</v>
       </c>
       <c r="F14" s="1">
-        <v>-10989.9585</v>
+        <v>-10967.4307</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114936.2834</v>
+        <v>114471.461</v>
       </c>
       <c r="I14" s="1">
-        <v>2427.8093</v>
+        <v>2422.808</v>
       </c>
       <c r="J14" s="1">
-        <v>117364.0927</v>
+        <v>116894.269</v>
       </c>
       <c r="K14" s="1">
-        <v>122711.8658</v>
+        <v>122706.3702</v>
       </c>
       <c r="L14" s="1">
-        <v>11.1658</v>
+        <v>11.1883</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114936.2834</v>
+        <v>114471.461</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0665</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.1611</v>
+        <v>11.1835</v>
       </c>
       <c r="D3" s="1">
-        <v>11.1654</v>
+        <v>11.188</v>
       </c>
       <c r="E3" s="1">
-        <v>11.1655</v>
+        <v>11.1882</v>
       </c>
       <c r="F3" s="1">
-        <v>11.1657</v>
+        <v>11.1883</v>
       </c>
       <c r="G3" s="1">
-        <v>11.1658</v>
+        <v>11.1883</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1668</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1022</v>
+        <v>-0.1148</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1019</v>
+        <v>-0.1147</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.102</v>
+        <v>-0.1148</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1021</v>
+        <v>-0.1149</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1022</v>
+        <v>-0.1149</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.119</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1229</v>
+        <v>0.1226</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1235</v>
+        <v>0.1233</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1236</v>
+        <v>0.1234</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1236</v>
+        <v>0.1234</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1236</v>
+        <v>0.1234</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.5733</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.9971</v>
+        <v>-1.102</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.9896</v>
+        <v>-1.095</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.9901</v>
+        <v>-1.0956</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.9907</v>
+        <v>-1.0961</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.9912</v>
+        <v>-1.0958</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.041</v>
+        <v>-0.0482</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0405</v>
+        <v>-0.0477</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0405</v>
+        <v>-0.0477</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0405</v>
+        <v>-0.0478</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0406</v>
+        <v>-0.0477</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5077.375</v>
+        <v>5067.1402</v>
       </c>
       <c r="D8" s="1">
-        <v>5140.0133</v>
+        <v>5129.3464</v>
       </c>
       <c r="E8" s="1">
-        <v>5139.9006</v>
+        <v>5129.2334</v>
       </c>
       <c r="F8" s="1">
-        <v>5139.7879</v>
+        <v>5129.1205</v>
       </c>
       <c r="G8" s="1">
-        <v>5139.6752</v>
+        <v>5129.1782</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P73_KFSDIV.xlsx
+++ b/output/1Y_P73_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4613</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.6545</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2345</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.1636</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8145</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2352</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8241</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2543</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5675</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967000000000001</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0064</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.0129</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4583</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4613</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.6545</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2345</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.1636</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8145</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2352</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8241</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2543</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5675</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967000000000001</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0064</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.0129</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4583</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4613</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.6545</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2345</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.1636</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8145</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2352</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8241</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2543</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5675</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967000000000001</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0064</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.0129</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4583</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4613</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.6545</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2345</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.1636</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8145</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2352</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8241</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2543</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5675</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967000000000001</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0064</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.0129</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4583</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4613</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.6545</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2345</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.1636</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8145</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.2352</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8241</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.2543</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5675</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9.967000000000001</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0064</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.0129</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4583</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6111.4018</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9555</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.955</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.955</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.955</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.955</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
